--- a/results/20250402/evaluation_VirusPseAAC_noisy_0.1.xlsx
+++ b/results/20250402/evaluation_VirusPseAAC_noisy_0.1.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.35621</v>
+        <v>0.6514799999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09224</v>
+        <v>0.03403</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.22386</v>
+        <v>0.08021</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0989</v>
+        <v>0.05101</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.35008</v>
+        <v>0.65222</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09266000000000001</v>
+        <v>0.03476</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.21805</v>
+        <v>0.11531</v>
       </c>
       <c r="I29" t="n">
-        <v>0.10031</v>
+        <v>0.06062</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.35717</v>
+        <v>0.65166</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09019000000000001</v>
+        <v>0.03342</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.222</v>
+        <v>0.08214</v>
       </c>
       <c r="I31" t="n">
-        <v>0.10038</v>
+        <v>0.05028</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.3545</v>
+        <v>0.65237</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08974</v>
+        <v>0.03555</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2229</v>
+        <v>0.12309</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09710000000000001</v>
+        <v>0.06365999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.49973</v>
+        <v>0.65679</v>
       </c>
       <c r="I34" t="n">
-        <v>0.11148</v>
+        <v>0.02357</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.35912</v>
+        <v>0.04355</v>
       </c>
       <c r="I35" t="n">
-        <v>0.13083</v>
+        <v>0.03496</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.49781</v>
+        <v>0.6577499999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>0.11322</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.35721</v>
+        <v>0.04841</v>
       </c>
       <c r="I37" t="n">
-        <v>0.13137</v>
+        <v>0.03818</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.49973</v>
+        <v>0.65691</v>
       </c>
       <c r="I38" t="n">
-        <v>0.11148</v>
+        <v>0.02339</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.35912</v>
+        <v>0.04355</v>
       </c>
       <c r="I39" t="n">
-        <v>0.13083</v>
+        <v>0.03496</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.49788</v>
+        <v>0.65782</v>
       </c>
       <c r="I40" t="n">
-        <v>0.11319</v>
+        <v>0.02357</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.35721</v>
+        <v>0.04938</v>
       </c>
       <c r="I41" t="n">
-        <v>0.13137</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.35618</v>
+        <v>0.61674</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08089</v>
+        <v>0.03628</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.1862</v>
+        <v>0.05807</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06679</v>
+        <v>0.04235</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.33684</v>
+        <v>0.62239</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07539</v>
+        <v>0.03595</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.17178</v>
+        <v>0.07649</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0615</v>
+        <v>0.05531</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.35919</v>
+        <v>0.61826</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07686999999999999</v>
+        <v>0.03455</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.19203</v>
+        <v>0.05805</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06428</v>
+        <v>0.04123</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.34443</v>
+        <v>0.62485</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07722999999999999</v>
+        <v>0.03711</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.18235</v>
+        <v>0.09296</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06428</v>
+        <v>0.05759</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.4142</v>
+        <v>0.6317700000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06358</v>
+        <v>0.03569</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.22009</v>
+        <v>0.03289</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05847</v>
+        <v>0.03146</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.38872</v>
+        <v>0.6359</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06205</v>
+        <v>0.03562</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.20177</v>
+        <v>0.04358</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05583</v>
+        <v>0.03837</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.41642</v>
+        <v>0.63236</v>
       </c>
       <c r="I78" t="n">
-        <v>0.065</v>
+        <v>0.03578</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.2239</v>
+        <v>0.03289</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06111</v>
+        <v>0.03146</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.3901</v>
+        <v>0.63596</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06244</v>
+        <v>0.03611</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.2075</v>
+        <v>0.04455</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05725</v>
+        <v>0.03941</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.34653</v>
+        <v>0.65344</v>
       </c>
       <c r="I106" t="n">
-        <v>0.09997</v>
+        <v>0.02625</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.19705</v>
+        <v>0.09868</v>
       </c>
       <c r="I107" t="n">
-        <v>0.08484999999999999</v>
+        <v>0.05485</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.33654</v>
+        <v>0.6539700000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>0.09365</v>
+        <v>0.02843</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.19222</v>
+        <v>0.12483</v>
       </c>
       <c r="I109" t="n">
-        <v>0.08096</v>
+        <v>0.05707</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.34457</v>
+        <v>0.65422</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09729</v>
+        <v>0.02601</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.19703</v>
+        <v>0.09868</v>
       </c>
       <c r="I111" t="n">
-        <v>0.08051999999999999</v>
+        <v>0.05441</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.34528</v>
+        <v>0.65572</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09668</v>
+        <v>0.02778</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.20091</v>
+        <v>0.13359</v>
       </c>
       <c r="I113" t="n">
-        <v>0.08275</v>
+        <v>0.05731</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.48518</v>
+        <v>0.6533</v>
       </c>
       <c r="I114" t="n">
-        <v>0.11053</v>
+        <v>0.02206</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.3275</v>
+        <v>0.03877</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1173</v>
+        <v>0.03624</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.4835</v>
+        <v>0.65452</v>
       </c>
       <c r="I116" t="n">
-        <v>0.11046</v>
+        <v>0.02151</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.32557</v>
+        <v>0.0426</v>
       </c>
       <c r="I117" t="n">
-        <v>0.11633</v>
+        <v>0.03765</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.48518</v>
+        <v>0.65324</v>
       </c>
       <c r="I118" t="n">
-        <v>0.11053</v>
+        <v>0.02212</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.3275</v>
+        <v>0.03877</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1173</v>
+        <v>0.03624</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.48409</v>
+        <v>0.6541400000000001</v>
       </c>
       <c r="I120" t="n">
-        <v>0.10979</v>
+        <v>0.02181</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.32557</v>
+        <v>0.0426</v>
       </c>
       <c r="I121" t="n">
-        <v>0.11633</v>
+        <v>0.03765</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.35569</v>
+        <v>0.63334</v>
       </c>
       <c r="I146" t="n">
-        <v>0.06234</v>
+        <v>0.02814</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.18267</v>
+        <v>0.05612</v>
       </c>
       <c r="I147" t="n">
-        <v>0.07004000000000001</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.33652</v>
+        <v>0.63464</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06375</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.17686</v>
+        <v>0.09085</v>
       </c>
       <c r="I149" t="n">
-        <v>0.06203</v>
+        <v>0.04875</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.3596</v>
+        <v>0.6339900000000001</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0613</v>
+        <v>0.02775</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.18843</v>
+        <v>0.05612</v>
       </c>
       <c r="I151" t="n">
-        <v>0.07054000000000001</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.34497</v>
+        <v>0.63898</v>
       </c>
       <c r="I152" t="n">
-        <v>0.06761</v>
+        <v>0.03177</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.18555</v>
+        <v>0.11501</v>
       </c>
       <c r="I153" t="n">
-        <v>0.06455</v>
+        <v>0.04646</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.38623</v>
+        <v>0.64498</v>
       </c>
       <c r="I154" t="n">
-        <v>0.07634000000000001</v>
+        <v>0.02504</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.19512</v>
+        <v>0.03199</v>
       </c>
       <c r="I155" t="n">
-        <v>0.06149</v>
+        <v>0.03128</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.36965</v>
+        <v>0.64727</v>
       </c>
       <c r="I156" t="n">
-        <v>0.07477</v>
+        <v>0.02511</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.18546</v>
+        <v>0.04643</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0598</v>
+        <v>0.03744</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.38803</v>
+        <v>0.64479</v>
       </c>
       <c r="I158" t="n">
-        <v>0.07581</v>
+        <v>0.02512</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.19607</v>
+        <v>0.03199</v>
       </c>
       <c r="I159" t="n">
-        <v>0.06123</v>
+        <v>0.03128</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.37301</v>
+        <v>0.6476499999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.07496</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.18739</v>
+        <v>0.04839</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05882</v>
+        <v>0.03814</v>
       </c>
     </row>
   </sheetData>
